--- a/Base de datos normalizada.xlsx
+++ b/Base de datos normalizada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MediVal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68AE3358-38A9-4464-9BAF-FD7B45B49602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5335EDB3-25F1-4D6B-BCCA-4DCFC5B9F8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2CA9F2D9-2F48-46BF-BE5A-9C24123A8C37}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
   <si>
     <t>Nombres</t>
   </si>
@@ -315,35 +315,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -353,12 +353,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="35">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -397,12 +391,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -437,6 +425,18 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -528,17 +528,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A1A46618-B25A-424B-9A23-24F34EA32CC1}" name="Tabla1" displayName="Tabla1" ref="B2:I4" totalsRowShown="0" headerRowDxfId="25" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A1A46618-B25A-424B-9A23-24F34EA32CC1}" name="Tabla1" displayName="Tabla1" ref="B2:I4" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="B2:I4" xr:uid="{A1A46618-B25A-424B-9A23-24F34EA32CC1}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A20195D1-516D-45EC-9784-B9997686D952}" name="Nombres" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{3A40AFBD-5D39-490E-BF7A-53171E19F399}" name="Apellidos" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{448469DE-AE59-4092-89CA-19DF740DCBAB}" name="Edad" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{9F41F401-2742-4A5C-AFAC-C96A35969949}" name="Enfermedad" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{720B49D8-E101-43BF-B4D2-AC66EA2FB488}" name="Núm_Habitación" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{2DB939F0-5E9C-47B6-A951-8FF2A648A595}" name="Núm_Cama" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{B3DCF6A1-9B68-4BA6-AC99-39EEAFA544D5}" name="Medicamentos" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{F9024E7A-A366-4781-B3D0-2BAFE0BC7D25}" name="Hora de aplicación" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{A20195D1-516D-45EC-9784-B9997686D952}" name="Nombres" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{3A40AFBD-5D39-490E-BF7A-53171E19F399}" name="Apellidos" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{448469DE-AE59-4092-89CA-19DF740DCBAB}" name="Edad" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{9F41F401-2742-4A5C-AFAC-C96A35969949}" name="Enfermedad" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{720B49D8-E101-43BF-B4D2-AC66EA2FB488}" name="Núm_Habitación" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{2DB939F0-5E9C-47B6-A951-8FF2A648A595}" name="Núm_Cama" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{B3DCF6A1-9B68-4BA6-AC99-39EEAFA544D5}" name="Medicamentos" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{F9024E7A-A366-4781-B3D0-2BAFE0BC7D25}" name="Hora de aplicación" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -562,28 +562,28 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{74358C46-7D3D-4C90-BDB7-8DFC0C18FFB7}" name="Tabla4" displayName="Tabla4" ref="B14:G16" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{74358C46-7D3D-4C90-BDB7-8DFC0C18FFB7}" name="Tabla4" displayName="Tabla4" ref="B14:G16" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="B14:G16" xr:uid="{74358C46-7D3D-4C90-BDB7-8DFC0C18FFB7}"/>
   <tableColumns count="6">
-    <tableColumn id="4" xr3:uid="{B9A0A640-75C2-4E7D-B5E0-DFAB71712B51}" name="ID" dataDxfId="14"/>
-    <tableColumn id="1" xr3:uid="{C3D5DA37-5278-4463-A2CA-8282B7685AB7}" name="Nombres" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{6C71B026-C4C1-41F3-8C25-EA8CF548198A}" name="Apellidos" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{28113D52-D89B-4BC4-B679-7170A2760778}" name="Edad" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{E70372B5-0724-4E00-84D0-B67B3D213B75}" name="Num_Habitación" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{0C04ED08-C64D-4544-83AE-D358022EAA56}" name="Num_Cama" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{B9A0A640-75C2-4E7D-B5E0-DFAB71712B51}" name="ID" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{C3D5DA37-5278-4463-A2CA-8282B7685AB7}" name="Nombres" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{6C71B026-C4C1-41F3-8C25-EA8CF548198A}" name="Apellidos" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{28113D52-D89B-4BC4-B679-7170A2760778}" name="Edad" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{E70372B5-0724-4E00-84D0-B67B3D213B75}" name="Num_Habitación" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{0C04ED08-C64D-4544-83AE-D358022EAA56}" name="Num_Cama" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7E33F590-7900-435E-B1F3-DB59BED15E55}" name="Tabla5" displayName="Tabla5" ref="B19:E24" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7E33F590-7900-435E-B1F3-DB59BED15E55}" name="Tabla5" displayName="Tabla5" ref="B19:E24" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="B19:E24" xr:uid="{7E33F590-7900-435E-B1F3-DB59BED15E55}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DF931A29-77F4-47B8-9BFA-464F6BC6B878}" name="ID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{AFF297D7-2BCC-4A1E-A228-71F444CF335B}" name="Hora de aplicación" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{F2986C9E-7B2A-49CF-BBBA-A72274DB1E2D}" name="Id_Paciente" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{74D45947-A213-4D61-9F03-C710789E8156}" name="ID_Med" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{DF931A29-77F4-47B8-9BFA-464F6BC6B878}" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{AFF297D7-2BCC-4A1E-A228-71F444CF335B}" name="Hora de aplicación" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{F2986C9E-7B2A-49CF-BBBA-A72274DB1E2D}" name="Id_Paciente" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{74D45947-A213-4D61-9F03-C710789E8156}" name="ID_Med" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -594,7 +594,7 @@
   <autoFilter ref="B27:C32" xr:uid="{E9549237-7DA4-46BE-B492-1A6E68892D77}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{BBCD6A58-8D3D-46A1-A849-334D008C05C1}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{A3591BDE-2E83-4A41-BE81-C99AFD4577F7}" name="Medicamento" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{A3591BDE-2E83-4A41-BE81-C99AFD4577F7}" name="Medicamento" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -942,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633820AB-CD52-4C05-A398-0E4BA2D69C91}">
   <dimension ref="B2:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,6 +1182,9 @@
       <c r="D11" s="4">
         <v>17</v>
       </c>
+      <c r="E11" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="F11" s="4">
         <v>29</v>
       </c>
@@ -1196,99 +1199,99 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="E14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="9">
+      <c r="B15" s="6">
         <v>1</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="6">
         <v>17</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="6">
         <v>64</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="9">
-        <v>2</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="6">
+        <v>2</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="6">
         <v>17</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="6">
         <v>29</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="G18" s="7" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="G18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G19" t="s">
@@ -1302,16 +1305,16 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="9">
+      <c r="B20" s="6">
         <v>1</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="6">
         <v>1</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="6">
         <v>1</v>
       </c>
       <c r="G20">
@@ -1325,16 +1328,16 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="9">
-        <v>2</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="6">
+        <v>2</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="6">
         <v>1</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="6">
         <v>2</v>
       </c>
       <c r="G21">
@@ -1348,16 +1351,16 @@
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="9">
+      <c r="B22" s="6">
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="6">
         <v>1</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="6">
         <v>3</v>
       </c>
       <c r="G22">
@@ -1371,39 +1374,39 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="9">
+      <c r="B23" s="6">
         <v>4</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="9">
-        <v>2</v>
-      </c>
-      <c r="E23" s="9">
+      <c r="D23" s="6">
+        <v>2</v>
+      </c>
+      <c r="E23" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="9">
+      <c r="B24" s="6">
         <v>5</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="9">
-        <v>2</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="D24" s="6">
+        <v>2</v>
+      </c>
+      <c r="E24" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="G26" s="6" t="s">
+      <c r="C26" s="11"/>
+      <c r="G26" s="12" t="s">
         <v>40</v>
       </c>
       <c r="H26" s="13"/>
@@ -1426,7 +1429,7 @@
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="8" t="s">
         <v>20</v>
       </c>
       <c r="G28">
@@ -1440,7 +1443,7 @@
       <c r="B29">
         <v>2</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G29">
